--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2220.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2220.xlsx
@@ -354,13 +354,13 @@
         <v>1.195182688297131</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2220.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2220.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.911111610772765</v>
+        <v>0.9549892544746399</v>
       </c>
       <c r="B1">
-        <v>1.195182688297131</v>
+        <v>2.089877367019653</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>7.913414001464844</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.59632134437561</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>0.734183132648468</v>
       </c>
     </row>
   </sheetData>
